--- a/TestData/JTPS-DEVQA/BAPurposeTypes.xlsx
+++ b/TestData/JTPS-DEVQA/BAPurposeTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="113">
   <si>
     <t>EOF</t>
   </si>
@@ -22,9 +22,6 @@
     <t>elm_close</t>
   </si>
   <si>
-    <t>wnd_DayRanges</t>
-  </si>
-  <si>
     <t>pJTPS</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>elm_Table</t>
   </si>
   <si>
-    <t>allrows,value^</t>
-  </si>
-  <si>
     <t>DeleteRow</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
     <t>dbclick</t>
   </si>
   <si>
-    <t>Day Ranges,setproperty,innertext</t>
-  </si>
-  <si>
     <t>elm_Changessavedtothedatabase</t>
   </si>
   <si>
@@ -148,9 +139,6 @@
     <t>5.3.0.3</t>
   </si>
   <si>
-    <t>allrows,value^,Description^Automation,short description^Automation</t>
-  </si>
-  <si>
     <t>5.2.6</t>
   </si>
   <si>
@@ -232,9 +220,6 @@
     <t>5.4</t>
   </si>
   <si>
-    <t>,setproperty,innertext</t>
-  </si>
-  <si>
     <t>scrollandclick</t>
   </si>
   <si>
@@ -347,6 +332,27 @@
   </si>
   <si>
     <t>Run_TestCase</t>
+  </si>
+  <si>
+    <t>BA Purpose Types</t>
+  </si>
+  <si>
+    <t>BA Purpose Types,setproperty,innertext</t>
+  </si>
+  <si>
+    <t>TS001</t>
+  </si>
+  <si>
+    <t>wnd_BAPurposeTypes</t>
+  </si>
+  <si>
+    <t>allrows,value^XYZ</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>allrows,value^XYZ,Description^Automation,short description^Automation</t>
   </si>
 </sst>
 </file>
@@ -973,15 +979,15 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1004,108 +1010,112 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="O1" s="38" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R1" s="37" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="S1" s="37" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="T1" s="37" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="U1" s="37" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="V1" s="37" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="W1" s="37" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="X1" s="36" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -1119,44 +1129,48 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="D3" s="8"/>
       <c r="E3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="3"/>
@@ -1174,19 +1188,19 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1194,10 +1208,10 @@
         <v>1</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="11"/>
@@ -1216,33 +1230,33 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -1259,34 +1273,34 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="18"/>
       <c r="M6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -1303,36 +1317,36 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="34" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -1349,33 +1363,33 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O8" s="33" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1392,31 +1406,31 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P9" s="33" t="s">
         <v>1</v>
@@ -1436,19 +1450,19 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
@@ -1456,10 +1470,10 @@
         <v>1</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O10" s="21"/>
       <c r="P10" s="16"/>
@@ -1478,36 +1492,36 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -1524,36 +1538,36 @@
       <c r="C12" s="8"/>
       <c r="D12" s="13"/>
       <c r="E12" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="32" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
@@ -1570,36 +1584,36 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P13" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
@@ -1616,36 +1630,36 @@
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
@@ -1662,36 +1676,36 @@
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P15" s="30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="23"/>
       <c r="R15" s="23"/>
@@ -1701,7 +1715,7 @@
       <c r="V15" s="22"/>
       <c r="W15" s="22"/>
       <c r="X15" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -1710,36 +1724,36 @@
       <c r="C16" s="8"/>
       <c r="D16" s="13"/>
       <c r="E16" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P16" s="28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
@@ -1756,36 +1770,36 @@
       <c r="C17" s="8"/>
       <c r="D17" s="13"/>
       <c r="E17" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
@@ -1802,36 +1816,36 @@
       <c r="C18" s="8"/>
       <c r="D18" s="13"/>
       <c r="E18" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
@@ -1848,36 +1862,36 @@
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
@@ -1894,36 +1908,36 @@
       <c r="C20" s="8"/>
       <c r="D20" s="13"/>
       <c r="E20" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P20" s="28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
@@ -1940,19 +1954,19 @@
       <c r="C21" s="8"/>
       <c r="D21" s="13"/>
       <c r="E21" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
@@ -1960,10 +1974,10 @@
         <v>1</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O21" s="21"/>
       <c r="P21" s="16"/>
@@ -1982,36 +1996,36 @@
       <c r="C22" s="8"/>
       <c r="D22" s="13"/>
       <c r="E22" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P22" s="28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
@@ -2028,36 +2042,36 @@
       <c r="C23" s="8"/>
       <c r="D23" s="13"/>
       <c r="E23" s="27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P23" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="23"/>
       <c r="R23" s="23"/>
@@ -2074,36 +2088,36 @@
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O24" s="23" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q24" s="23"/>
       <c r="R24" s="23"/>
@@ -2120,26 +2134,26 @@
       <c r="C25" s="8"/>
       <c r="D25" s="13"/>
       <c r="E25" s="27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I25" s="25"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="12"/>
       <c r="M25" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O25" s="23"/>
       <c r="P25" s="24"/>
@@ -2151,7 +2165,7 @@
       <c r="V25" s="22"/>
       <c r="W25" s="22"/>
       <c r="X25" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
@@ -2160,36 +2174,36 @@
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
@@ -2206,36 +2220,36 @@
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
@@ -2252,34 +2266,36 @@
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="19"/>
+      <c r="L28" s="19" t="s">
+        <v>111</v>
+      </c>
       <c r="M28" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
@@ -2296,36 +2312,36 @@
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
@@ -2342,36 +2358,36 @@
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
@@ -2388,33 +2404,33 @@
       <c r="C31" s="8"/>
       <c r="D31" s="13"/>
       <c r="E31" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P31" s="11"/>
       <c r="Q31" s="10"/>
@@ -2432,36 +2448,36 @@
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P32" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
@@ -2478,33 +2494,33 @@
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P33" s="11" t="s">
         <v>1</v>
@@ -2524,36 +2540,36 @@
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
-      <c r="L34" s="18" t="s">
-        <v>25</v>
+      <c r="L34" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P34" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
@@ -2570,36 +2586,36 @@
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P35" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
@@ -2616,36 +2632,36 @@
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="14" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P36" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
@@ -2662,36 +2678,36 @@
       <c r="C37" s="8"/>
       <c r="D37" s="13"/>
       <c r="E37" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P37" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
@@ -2708,36 +2724,36 @@
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P38" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
@@ -2754,34 +2770,36 @@
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="19"/>
+      <c r="L39" s="19" t="s">
+        <v>111</v>
+      </c>
       <c r="M39" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P39" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
@@ -2798,36 +2816,36 @@
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P40" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
@@ -2844,36 +2862,36 @@
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P41" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
@@ -2890,36 +2908,36 @@
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="G42" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
@@ -2936,33 +2954,33 @@
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O43" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P43" s="11" t="s">
         <v>1</v>
@@ -2982,36 +3000,36 @@
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J44" s="17"/>
       <c r="K44" s="17"/>
-      <c r="L44" s="18" t="s">
-        <v>25</v>
+      <c r="L44" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P44" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
@@ -3028,36 +3046,36 @@
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P45" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
@@ -3074,36 +3092,36 @@
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P46" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
@@ -3120,34 +3138,36 @@
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
-      <c r="L47" s="19"/>
+      <c r="L47" s="19" t="s">
+        <v>111</v>
+      </c>
       <c r="M47" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O47" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P47" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
@@ -3164,36 +3184,36 @@
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O48" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P48" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
@@ -3210,36 +3230,36 @@
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="G49" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O49" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P49" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
@@ -3256,36 +3276,36 @@
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="G50" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P50" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
@@ -3302,33 +3322,33 @@
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O51" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P51" s="11" t="s">
         <v>1</v>
@@ -3348,36 +3368,36 @@
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
-      <c r="L52" s="18" t="s">
-        <v>25</v>
+      <c r="L52" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P52" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
@@ -3394,36 +3414,36 @@
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P53" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
@@ -3440,36 +3460,36 @@
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O54" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P54" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q54" s="10"/>
       <c r="R54" s="10"/>
@@ -3486,33 +3506,33 @@
       <c r="C55" s="8"/>
       <c r="D55" s="13"/>
       <c r="E55" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O55" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P55" s="11" t="s">
         <v>1</v>
@@ -3532,33 +3552,33 @@
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F56" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="G56" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O56" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P56" s="10"/>
       <c r="Q56" s="3"/>
@@ -3576,36 +3596,36 @@
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
-      <c r="L57" s="18" t="s">
-        <v>25</v>
+      <c r="L57" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P57" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
@@ -3622,36 +3642,36 @@
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P58" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
@@ -3668,36 +3688,36 @@
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O59" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P59" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
@@ -3714,36 +3734,36 @@
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O60" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P60" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q60" s="10"/>
       <c r="R60" s="10"/>
@@ -3760,33 +3780,33 @@
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O61" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P61" s="11"/>
       <c r="Q61" s="10"/>
@@ -3804,33 +3824,33 @@
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="G62" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O62" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P62" s="11" t="s">
         <v>1</v>
@@ -3850,36 +3870,36 @@
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="L63" s="18" t="s">
-        <v>25</v>
+      <c r="L63" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P63" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
@@ -3896,36 +3916,36 @@
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
       <c r="E64" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P64" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
@@ -3942,36 +3962,36 @@
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F65" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="G65" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O65" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P65" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q65" s="10"/>
       <c r="R65" s="10"/>
@@ -3988,36 +4008,36 @@
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="G66" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="14" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O66" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P66" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q66" s="10"/>
       <c r="R66" s="10"/>
@@ -4034,36 +4054,36 @@
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O67" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P67" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q67" s="10"/>
       <c r="R67" s="10"/>
@@ -4080,35 +4100,35 @@
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K68" s="3"/>
       <c r="L68" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O68" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q68" s="11"/>
       <c r="R68" s="11"/>
@@ -4125,36 +4145,36 @@
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O69" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P69" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q69" s="10"/>
       <c r="R69" s="10"/>
@@ -4171,33 +4191,33 @@
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
       <c r="E70" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F70" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="G70" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O70" s="10" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="P70" s="11" t="s">
         <v>1</v>

--- a/TestData/JTPS-DEVQA/BAPurposeTypes.xlsx
+++ b/TestData/JTPS-DEVQA/BAPurposeTypes.xlsx
@@ -79,9 +79,6 @@
     <t>elm_RefinanceTypes</t>
   </si>
   <si>
-    <t>wnd_Reference</t>
-  </si>
-  <si>
     <t>dbclick</t>
   </si>
   <si>
@@ -232,9 +229,6 @@
     <t>5.2</t>
   </si>
   <si>
-    <t>lnk_MenuReference</t>
-  </si>
-  <si>
     <t>5.1</t>
   </si>
   <si>
@@ -346,13 +340,19 @@
     <t>wnd_BAPurposeTypes</t>
   </si>
   <si>
-    <t>allrows,value^XYZ</t>
-  </si>
-  <si>
-    <t>XYZ</t>
-  </si>
-  <si>
-    <t>allrows,value^XYZ,Description^Automation,short description^Automation</t>
+    <t>XY</t>
+  </si>
+  <si>
+    <t>allrows,value^XY,Description^Automation,short description^Automation</t>
+  </si>
+  <si>
+    <t>allrows,value^XY</t>
+  </si>
+  <si>
+    <t>wnd_BankSetup</t>
+  </si>
+  <si>
+    <t>lnk_MenuBankSetup</t>
   </si>
 </sst>
 </file>
@@ -979,8 +979,8 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="D30" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,7 +1000,7 @@
     <col min="13" max="13" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" style="1" customWidth="1"/>
     <col min="17" max="21" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1010,94 +1010,94 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O1" s="38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R1" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S1" s="37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T1" s="37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U1" s="37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V1" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W1" s="37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X1" s="36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>7</v>
@@ -1106,16 +1106,16 @@
         <v>6</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -1129,7 +1129,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -1137,17 +1137,17 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>7</v>
@@ -1170,7 +1170,7 @@
         <v>2</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="3"/>
@@ -1191,7 +1191,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>7</v>
@@ -1200,7 +1200,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>7</v>
@@ -1256,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -1276,7 +1276,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>7</v>
@@ -1297,10 +1297,10 @@
         <v>2</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -1320,7 +1320,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>7</v>
@@ -1329,12 +1329,12 @@
         <v>6</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>3</v>
@@ -1343,7 +1343,7 @@
         <v>2</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="P7" s="16" t="s">
         <v>20</v>
@@ -1366,7 +1366,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>7</v>
@@ -1389,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="O8" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1409,7 +1409,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>7</v>
@@ -1430,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P9" s="33" t="s">
         <v>1</v>
@@ -1453,7 +1453,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>7</v>
@@ -1462,7 +1462,7 @@
         <v>6</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
@@ -1495,7 +1495,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>7</v>
@@ -1509,7 +1509,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>3</v>
@@ -1518,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="P11" s="16" t="s">
         <v>20</v>
@@ -1541,7 +1541,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>7</v>
@@ -1550,12 +1550,12 @@
         <v>6</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
@@ -1564,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P12" s="11" t="s">
         <v>9</v>
@@ -1587,7 +1587,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>7</v>
@@ -1596,12 +1596,12 @@
         <v>6</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>3</v>
@@ -1610,7 +1610,7 @@
         <v>2</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P13" s="28" t="s">
         <v>14</v>
@@ -1633,7 +1633,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>7</v>
@@ -1642,12 +1642,12 @@
         <v>6</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -1656,10 +1656,10 @@
         <v>2</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
@@ -1676,10 +1676,10 @@
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" s="27" t="s">
         <v>7</v>
@@ -1688,12 +1688,12 @@
         <v>6</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
@@ -1702,10 +1702,10 @@
         <v>2</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P15" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="23"/>
       <c r="R15" s="23"/>
@@ -1715,7 +1715,7 @@
       <c r="V15" s="22"/>
       <c r="W15" s="22"/>
       <c r="X15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -1727,7 +1727,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>7</v>
@@ -1741,7 +1741,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>3</v>
@@ -1750,10 +1750,10 @@
         <v>2</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P16" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
@@ -1773,7 +1773,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>7</v>
@@ -1782,12 +1782,12 @@
         <v>6</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
@@ -1796,10 +1796,10 @@
         <v>2</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
@@ -1819,7 +1819,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>7</v>
@@ -1828,12 +1828,12 @@
         <v>6</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
@@ -1842,10 +1842,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
@@ -1865,7 +1865,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>7</v>
@@ -1874,12 +1874,12 @@
         <v>6</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>3</v>
@@ -1888,10 +1888,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
@@ -1911,7 +1911,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>7</v>
@@ -1925,7 +1925,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1934,10 +1934,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P20" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
@@ -1957,7 +1957,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>7</v>
@@ -1966,7 +1966,7 @@
         <v>6</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>7</v>
@@ -2013,7 +2013,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -2022,10 +2022,10 @@
         <v>2</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P22" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
@@ -2042,10 +2042,10 @@
       <c r="C23" s="8"/>
       <c r="D23" s="13"/>
       <c r="E23" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="27" t="s">
         <v>7</v>
@@ -2056,22 +2056,22 @@
       <c r="I23" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="12" t="s">
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
+      <c r="M23" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="23" t="s">
         <v>2</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P23" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="23"/>
       <c r="R23" s="23"/>
@@ -2080,7 +2080,7 @@
       <c r="U23" s="23"/>
       <c r="V23" s="22"/>
       <c r="W23" s="22"/>
-      <c r="X23" s="9"/>
+      <c r="X23" s="22"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
@@ -2088,33 +2088,33 @@
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3" t="s">
+      <c r="M24" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="23" t="s">
         <v>2</v>
       </c>
       <c r="O24" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P24" s="24" t="s">
         <v>15</v>
@@ -2126,7 +2126,7 @@
       <c r="U24" s="23"/>
       <c r="V24" s="22"/>
       <c r="W24" s="22"/>
-      <c r="X24" s="3"/>
+      <c r="X24" s="22"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
@@ -2134,10 +2134,10 @@
       <c r="C25" s="8"/>
       <c r="D25" s="13"/>
       <c r="E25" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" s="27" t="s">
         <v>7</v>
@@ -2146,13 +2146,13 @@
         <v>6</v>
       </c>
       <c r="I25" s="25"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N25" s="3" t="s">
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" s="23" t="s">
         <v>2</v>
       </c>
       <c r="O25" s="23"/>
@@ -2164,8 +2164,8 @@
       <c r="U25" s="23"/>
       <c r="V25" s="22"/>
       <c r="W25" s="22"/>
-      <c r="X25" s="9" t="s">
-        <v>45</v>
+      <c r="X25" s="22" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
@@ -2177,7 +2177,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>7</v>
@@ -2200,10 +2200,10 @@
         <v>2</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
@@ -2223,7 +2223,7 @@
         <v>7</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>7</v>
@@ -2237,7 +2237,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
@@ -2246,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P27" s="11" t="s">
         <v>17</v>
@@ -2262,14 +2262,14 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>7</v>
@@ -2283,7 +2283,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>3</v>
@@ -2292,10 +2292,10 @@
         <v>2</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
@@ -2306,16 +2306,16 @@
       <c r="W28" s="2"/>
       <c r="X28" s="9"/>
     </row>
-    <row r="29" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>7</v>
@@ -2329,7 +2329,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
@@ -2338,10 +2338,10 @@
         <v>2</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
@@ -2361,7 +2361,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>7</v>
@@ -2384,7 +2384,7 @@
         <v>2</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P30" s="11" t="s">
         <v>9</v>
@@ -2416,12 +2416,12 @@
         <v>6</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>3</v>
@@ -2430,7 +2430,7 @@
         <v>2</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P31" s="11"/>
       <c r="Q31" s="10"/>
@@ -2460,12 +2460,12 @@
         <v>6</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -2474,10 +2474,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P32" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
@@ -2497,7 +2497,7 @@
         <v>7</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>7</v>
@@ -2520,7 +2520,7 @@
         <v>2</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P33" s="11" t="s">
         <v>1</v>
@@ -2534,7 +2534,7 @@
       <c r="W33" s="2"/>
       <c r="X33" s="9"/>
     </row>
-    <row r="34" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="13"/>
@@ -2557,7 +2557,7 @@
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
       <c r="L34" s="34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>3</v>
@@ -2566,7 +2566,7 @@
         <v>2</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="P34" s="16" t="s">
         <v>20</v>
@@ -2580,7 +2580,7 @@
       <c r="W34" s="2"/>
       <c r="X34" s="9"/>
     </row>
-    <row r="35" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="2"/>
       <c r="C35" s="13"/>
@@ -2603,7 +2603,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
@@ -2612,7 +2612,7 @@
         <v>2</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="P35" s="16" t="s">
         <v>20</v>
@@ -2635,7 +2635,7 @@
         <v>7</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>7</v>
@@ -2649,7 +2649,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>3</v>
@@ -2658,7 +2658,7 @@
         <v>2</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P36" s="11" t="s">
         <v>15</v>
@@ -2681,7 +2681,7 @@
         <v>7</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>7</v>
@@ -2704,10 +2704,10 @@
         <v>2</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P37" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
@@ -2727,7 +2727,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>7</v>
@@ -2741,7 +2741,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M38" s="3" t="s">
         <v>3</v>
@@ -2750,7 +2750,7 @@
         <v>2</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P38" s="11" t="s">
         <v>17</v>
@@ -2773,7 +2773,7 @@
         <v>7</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>7</v>
@@ -2787,7 +2787,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>3</v>
@@ -2796,10 +2796,10 @@
         <v>2</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P39" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
@@ -2810,7 +2810,7 @@
       <c r="W39" s="2"/>
       <c r="X39" s="3"/>
     </row>
-    <row r="40" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="13"/>
@@ -2819,7 +2819,7 @@
         <v>7</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>7</v>
@@ -2833,7 +2833,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>3</v>
@@ -2842,10 +2842,10 @@
         <v>2</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P40" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
@@ -2888,7 +2888,7 @@
         <v>2</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P41" s="11" t="s">
         <v>9</v>
@@ -2920,12 +2920,12 @@
         <v>6</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
@@ -2934,10 +2934,10 @@
         <v>2</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
@@ -2957,7 +2957,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>7</v>
@@ -2980,7 +2980,7 @@
         <v>2</v>
       </c>
       <c r="O43" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P43" s="11" t="s">
         <v>1</v>
@@ -2994,7 +2994,7 @@
       <c r="W43" s="2"/>
       <c r="X43" s="3"/>
     </row>
-    <row r="44" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="13"/>
@@ -3017,7 +3017,7 @@
       <c r="J44" s="17"/>
       <c r="K44" s="17"/>
       <c r="L44" s="34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
@@ -3026,7 +3026,7 @@
         <v>2</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="P44" s="16" t="s">
         <v>20</v>
@@ -3040,7 +3040,7 @@
       <c r="W44" s="2"/>
       <c r="X44" s="3"/>
     </row>
-    <row r="45" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="13"/>
@@ -3063,7 +3063,7 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -3072,7 +3072,7 @@
         <v>2</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="P45" s="16" t="s">
         <v>20</v>
@@ -3095,7 +3095,7 @@
         <v>7</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>7</v>
@@ -3118,10 +3118,10 @@
         <v>2</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P46" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
@@ -3141,7 +3141,7 @@
         <v>7</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>7</v>
@@ -3155,7 +3155,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
@@ -3164,10 +3164,10 @@
         <v>2</v>
       </c>
       <c r="O47" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P47" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
@@ -3210,7 +3210,7 @@
         <v>2</v>
       </c>
       <c r="O48" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P48" s="11" t="s">
         <v>9</v>
@@ -3242,12 +3242,12 @@
         <v>6</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -3256,10 +3256,10 @@
         <v>2</v>
       </c>
       <c r="O49" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P49" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
@@ -3288,12 +3288,12 @@
         <v>6</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M50" s="3" t="s">
         <v>3</v>
@@ -3302,10 +3302,10 @@
         <v>2</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P50" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
@@ -3325,7 +3325,7 @@
         <v>7</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>7</v>
@@ -3348,7 +3348,7 @@
         <v>2</v>
       </c>
       <c r="O51" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P51" s="11" t="s">
         <v>1</v>
@@ -3362,7 +3362,7 @@
       <c r="W51" s="2"/>
       <c r="X51" s="3"/>
     </row>
-    <row r="52" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="13"/>
@@ -3385,7 +3385,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -3394,7 +3394,7 @@
         <v>2</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="P52" s="16" t="s">
         <v>20</v>
@@ -3408,7 +3408,7 @@
       <c r="W52" s="2"/>
       <c r="X52" s="3"/>
     </row>
-    <row r="53" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="13"/>
@@ -3431,7 +3431,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M53" s="3" t="s">
         <v>3</v>
@@ -3440,7 +3440,7 @@
         <v>2</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="P53" s="16" t="s">
         <v>20</v>
@@ -3463,7 +3463,7 @@
         <v>7</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>7</v>
@@ -3477,7 +3477,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
@@ -3486,7 +3486,7 @@
         <v>2</v>
       </c>
       <c r="O54" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P54" s="11" t="s">
         <v>17</v>
@@ -3509,7 +3509,7 @@
         <v>7</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>7</v>
@@ -3532,7 +3532,7 @@
         <v>2</v>
       </c>
       <c r="O55" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P55" s="11" t="s">
         <v>1</v>
@@ -3564,12 +3564,12 @@
         <v>6</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M56" s="3" t="s">
         <v>3</v>
@@ -3578,7 +3578,7 @@
         <v>2</v>
       </c>
       <c r="O56" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P56" s="10"/>
       <c r="Q56" s="3"/>
@@ -3590,7 +3590,7 @@
       <c r="W56" s="2"/>
       <c r="X56" s="3"/>
     </row>
-    <row r="57" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="13"/>
@@ -3613,7 +3613,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -3622,7 +3622,7 @@
         <v>2</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="P57" s="16" t="s">
         <v>20</v>
@@ -3636,7 +3636,7 @@
       <c r="W57" s="2"/>
       <c r="X57" s="3"/>
     </row>
-    <row r="58" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="13"/>
@@ -3659,7 +3659,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -3668,7 +3668,7 @@
         <v>2</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="P58" s="16" t="s">
         <v>20</v>
@@ -3705,7 +3705,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
@@ -3714,7 +3714,7 @@
         <v>2</v>
       </c>
       <c r="O59" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P59" s="11" t="s">
         <v>17</v>
@@ -3760,7 +3760,7 @@
         <v>2</v>
       </c>
       <c r="O60" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P60" s="11" t="s">
         <v>9</v>
@@ -3792,12 +3792,12 @@
         <v>6</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M61" s="3" t="s">
         <v>3</v>
@@ -3806,7 +3806,7 @@
         <v>2</v>
       </c>
       <c r="O61" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P61" s="11"/>
       <c r="Q61" s="10"/>
@@ -3850,7 +3850,7 @@
         <v>2</v>
       </c>
       <c r="O62" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P62" s="11" t="s">
         <v>1</v>
@@ -3864,7 +3864,7 @@
       <c r="W62" s="2"/>
       <c r="X62" s="9"/>
     </row>
-    <row r="63" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="13"/>
@@ -3887,7 +3887,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M63" s="3" t="s">
         <v>3</v>
@@ -3896,7 +3896,7 @@
         <v>2</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="P63" s="16" t="s">
         <v>20</v>
@@ -3910,7 +3910,7 @@
       <c r="W63" s="2"/>
       <c r="X63" s="9"/>
     </row>
-    <row r="64" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="13"/>
@@ -3933,7 +3933,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M64" s="3" t="s">
         <v>3</v>
@@ -3942,7 +3942,7 @@
         <v>2</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="P64" s="16" t="s">
         <v>20</v>
@@ -3988,7 +3988,7 @@
         <v>2</v>
       </c>
       <c r="O65" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P65" s="11" t="s">
         <v>17</v>
@@ -4034,7 +4034,7 @@
         <v>2</v>
       </c>
       <c r="O66" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P66" s="11" t="s">
         <v>15</v>
@@ -4080,7 +4080,7 @@
         <v>2</v>
       </c>
       <c r="O67" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P67" s="11" t="s">
         <v>14</v>
@@ -4171,7 +4171,7 @@
         <v>2</v>
       </c>
       <c r="O69" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P69" s="11" t="s">
         <v>9</v>
@@ -4217,7 +4217,7 @@
         <v>2</v>
       </c>
       <c r="O70" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P70" s="11" t="s">
         <v>1</v>
